--- a/dashboard/excel/maqe.xlsx
+++ b/dashboard/excel/maqe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\senorapuff-main\senorapuff-main\dashboard\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0DDA2B-E1AF-4823-A893-4ECEEE252B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF4745E-94A4-418F-BFDD-D6B1EA3721DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E9E60F0-E679-46CF-80FA-A1D1A90A6B25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E9E60F0-E679-46CF-80FA-A1D1A90A6B25}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>inventario de herramientas, materiales e insumos.</t>
-  </si>
-  <si>
     <t>N.DE</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>FECHA DE ULTIMA ACTUALIZACION</t>
+  </si>
+  <si>
+    <t>Inventario de herramientas, materiales e insumos.</t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="C1" sqref="C1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,7 @@
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="11" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -711,22 +711,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="1"/>
       <c r="K4" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="6"/>
     </row>
@@ -746,40 +746,40 @@
     </row>
     <row r="6" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1209,6 +1209,6 @@
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>